--- a/protocol.xlsx
+++ b/protocol.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simone/Desktop/Anyboard/dev/anypawn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simone/Desktop/Anyboard/dev-anypawn/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="17420" yWindow="3320" windowWidth="16920" windowHeight="11680" tabRatio="500"/>
+    <workbookView xWindow="36300" yWindow="440" windowWidth="14900" windowHeight="28360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>TOKEN-solo events</t>
   </si>
@@ -168,12 +168,15 @@
   </si>
   <si>
     <t xml:space="preserve">  '#F4E658': 37 // Yellow</t>
+  </si>
+  <si>
+    <t>C2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -223,6 +226,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -490,11 +496,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="146" zoomScaleNormal="146" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A26" sqref="A26:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,6 +590,9 @@
       <c r="B10">
         <v>194</v>
       </c>
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
